--- a/data/trans_camb/P2C_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 3,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 1,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,56; 55,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,28; 9,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 3,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,03; 47,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 5,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 1,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,32; 45,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2904,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>554,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6113,79%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>396,7; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,13; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1486,39; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,91; 36,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 0,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 0,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,8; 19,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 0,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,69; 24,29</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1034,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2341,57%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>329,83; 4411,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 699,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>762,24; 8636,91</t>
         </is>
       </c>
     </row>
@@ -1069,42 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,71</t>
         </is>
       </c>
     </row>
@@ -1122,42 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,19; 44,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 2,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 1,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,21; 42,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,73; 40,91</t>
         </is>
       </c>
     </row>
@@ -1175,42 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3443,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6182,18%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>892,32; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1597,37; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,76</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,87; 41,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 3,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,99; 26,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 1,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,22; 29,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4724,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>293,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9114,32%</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 3,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,48; 4,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,55; 27,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,93; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,71; 31,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 0,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 1,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,54; 26,01</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>413,39%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1366,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,73%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,12%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>812,96%</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1660,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 638,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,34; 2737,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>275,0; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1690,12 +1690,12 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,01; 206,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>246,18; 2451,39</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,7</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,03</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 4,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,63; 32,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 1,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,13; 32,96</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 0,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 2,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,61; 29,78</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1881,21%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3509,6%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>396,02; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>735,36; —</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,05</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 3,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 1,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,02; 20,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 2,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 1,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 21,76</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 2,24</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 1,25</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 16,85</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>447,9%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>174,22%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4332,04%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>510,39%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>211,1%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1840,77%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>481,23%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>194,62%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2210,25%</t>
         </is>
       </c>
     </row>
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,05; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,01; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>127,38; 15067,48</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,61</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 0,38</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 1,17</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 6,14</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 0,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 1,76</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,89; 10,32</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 0,13</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 1,29</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,85; 7,67</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,71%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,09%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>326,65%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,36%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,17%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>798,63%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,31%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>622,52%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,84; 2369,23</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2323,27 +2323,27 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,59; 554,34</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>226,11; 3786,85</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,66; 67,96</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,53; 320,03</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>237,26; 1789,06</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,05</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,86</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 0,75</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 0,91</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,15; 19,76</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 1,02</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 0,79</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,47; 17,32</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 0,71</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 0,67</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,51; 16,98</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2772,29%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1641,36%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2028,51%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,78; 232,45</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,34; 311,74</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1307,61; 5854,32</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,37; 211,14</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,7; 150,17</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>623,89; 3026,97</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,37; 148,54</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,8; 143,62</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1083,92; 3177,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,29</t>
+          <t>-1,89; 3,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,18</t>
+          <t>-3,11; 1,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,56; 55,81</t>
+          <t>17,8; 53,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,57</t>
+          <t>1,92; 9,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,47</t>
+          <t>0,47; 4,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,03; 47,0</t>
+          <t>22,33; 46,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,98</t>
+          <t>1,01; 5,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,84</t>
+          <t>-0,85; 1,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,32; 45,34</t>
+          <t>23,89; 45,11</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>396,7; —</t>
+          <t>498,01; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,13; —</t>
+          <t>1,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1486,39; —</t>
+          <t>1208,25; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,0; 1,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 3,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 36,83</t>
+          <t>13,9; 35,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,6</t>
+          <t>-2,65; 0,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,94</t>
+          <t>-2,48; 0,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 19,81</t>
+          <t>9,07; 20,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,57</t>
+          <t>-1,33; 0,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,15</t>
+          <t>-1,04; 1,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,69; 24,29</t>
+          <t>12,94; 23,76</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>329,83; 4411,44</t>
+          <t>314,74; 4466,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 301,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 699,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>762,24; 8636,91</t>
+          <t>779,04; 7019,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1122,42 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 3,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,19; 44,29</t>
+          <t>20,46; 44,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,5</t>
+          <t>-1,6; 2,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,72</t>
+          <t>-1,88; 1,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,21; 42,78</t>
+          <t>22,53; 41,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,25</t>
+          <t>-1,02; 1,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,42</t>
+          <t>-1,02; 1,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,73; 40,91</t>
+          <t>24,75; 39,83</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>892,32; —</t>
+          <t>925,55; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1597,37; —</t>
+          <t>1641,95; —</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 0,0</t>
+          <t>-2,66; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 0,0</t>
+          <t>-2,36; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,87; 41,5</t>
+          <t>14,49; 41,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,81</t>
+          <t>0,62; 3,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,26</t>
+          <t>0,35; 3,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,99; 26,21</t>
+          <t>13,34; 25,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,75</t>
+          <t>-0,11; 1,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,38</t>
+          <t>-0,3; 1,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,22; 29,75</t>
+          <t>15,29; 29,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,44</t>
+          <t>-6,26; 2,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 4,82</t>
+          <t>-5,42; 4,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,55; 27,29</t>
+          <t>3,74; 26,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 0,0</t>
+          <t>-5,58; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 0,0</t>
+          <t>-5,37; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,71; 31,97</t>
+          <t>13,19; 31,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,97</t>
+          <t>-3,88; 1,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,65</t>
+          <t>-3,53; 1,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,54; 26,01</t>
+          <t>11,21; 26,81</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1660,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 638,23</t>
+          <t>-100,0; 784,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 2737,48</t>
+          <t>-27,53; 2971,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,29 +1680,29 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>275,0; —</t>
+          <t>293,89; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 286,79</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-89,01; 206,75</t>
+          <t>-88,54; 242,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>246,18; 2451,39</t>
+          <t>223,91; 2531,59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,81</t>
+          <t>0,0; 3,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,97</t>
+          <t>0,5; 5,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>14,63; 32,93</t>
+          <t>14,53; 31,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,0</t>
+          <t>-3,95; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 1,55</t>
+          <t>-2,58; 1,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,13; 32,96</t>
+          <t>17,2; 31,84</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,87</t>
+          <t>-1,57; 0,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,33</t>
+          <t>-0,86; 2,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>18,61; 29,78</t>
+          <t>18,03; 29,42</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>396,02; —</t>
+          <t>385,63; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,14 +1911,14 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>735,36; —</t>
+          <t>891,43; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,26</t>
+          <t>0,04; 3,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,92</t>
+          <t>-0,37; 1,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,02; 20,83</t>
+          <t>4,11; 21,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,53</t>
+          <t>0,21; 2,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,65</t>
+          <t>-0,23; 1,48</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,21; 21,76</t>
+          <t>0,39; 21,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,24</t>
+          <t>0,34; 2,26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,25</t>
+          <t>-0,09; 1,31</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 16,85</t>
+          <t>0,62; 17,12</t>
         </is>
       </c>
     </row>
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>13,05; —</t>
+          <t>-12,87; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-73,01; —</t>
+          <t>-70,43; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>127,38; 15067,48</t>
+          <t>181,51; —</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,38</t>
+          <t>-2,18; 0,36</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,17</t>
+          <t>-1,54; 1,13</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,14</t>
+          <t>0,28; 5,36</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,28</t>
+          <t>-1,86; 0,34</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,76</t>
+          <t>-0,85; 2,04</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,32</t>
+          <t>4,89; 10,23</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,13</t>
+          <t>-1,45; 0,12</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,29</t>
+          <t>-0,7; 1,18</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,67</t>
+          <t>3,71; 7,77</t>
         </is>
       </c>
     </row>
@@ -2308,12 +2308,12 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 536,65</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 2369,23</t>
+          <t>-39,59; 1814,71</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2323,27 +2323,27 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-66,59; 554,34</t>
+          <t>-64,73; 732,03</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>226,11; 3786,85</t>
+          <t>260,09; 3749,76</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-89,66; 67,96</t>
+          <t>-91,72; 69,04</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-50,53; 320,03</t>
+          <t>-55,69; 288,11</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>237,26; 1789,06</t>
+          <t>202,54; 1643,21</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,75</t>
+          <t>-0,38; 0,73</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,91</t>
+          <t>-0,26; 0,95</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>13,15; 19,76</t>
+          <t>13,03; 19,43</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,02</t>
+          <t>-0,22; 0,95</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,79</t>
+          <t>-0,36; 0,84</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>5,47; 17,32</t>
+          <t>5,65; 17,39</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 0,71</t>
+          <t>-0,14; 0,68</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,67</t>
+          <t>-0,14; 0,68</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>7,51; 16,98</t>
+          <t>7,94; 17,05</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-45,78; 232,45</t>
+          <t>-48,43; 206,99</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 311,74</t>
+          <t>-36,19; 292,54</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>1307,61; 5854,32</t>
+          <t>1334,07; 5507,74</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 211,14</t>
+          <t>-24,44; 198,03</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 150,17</t>
+          <t>-36,66; 172,11</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>623,89; 3026,97</t>
+          <t>634,53; 2977,19</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 148,54</t>
+          <t>-18,57; 139,92</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 143,62</t>
+          <t>-16,43; 133,0</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>1083,92; 3177,73</t>
+          <t>1052,54; 3156,47</t>
         </is>
       </c>
     </row>
